--- a/ig/295-erreur-cardinalite-practitionner-civilité/StructureDefinition-ror-healthcareservice-contact-telecom.xlsx
+++ b/ig/295-erreur-cardinalite-practitionner-civilité/StructureDefinition-ror-healthcareservice-contact-telecom.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-26T15:22:17+00:00</t>
+    <t>2024-01-26T15:42:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
